--- a/AstrumConfig/Tables/Datas/Entity/#EntityModel.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#EntityModel.xlsx
@@ -481,10 +481,6 @@
           <t>##group</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,22 +490,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ModelID</t>
+          <t>模型ID</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ModelName</t>
+          <t>模型名称</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ModelPath</t>
+          <t>模型路径</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ModelType</t>
+          <t>模型类型</t>
         </is>
       </c>
     </row>
